--- a/Majors%2FMinor%2FTrack Progress.xlsx
+++ b/Majors%2FMinor%2FTrack Progress.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
+  <workbookPr autoCompressPictures="0"/>
+  <bookViews>
+    <workbookView xWindow="5240" yWindow="3040" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="72">
   <si>
     <t>Major</t>
   </si>
@@ -212,64 +220,100 @@
   </si>
   <si>
     <t>Pre-medical studies and health careers</t>
+  </si>
+  <si>
+    <t>Must have 2.0 grade average in classes satisfying the major requirement, excluding MTH145 or MTH 150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At least one more course numbered 230 or greater in ACC, BUS (Excluding BUS-503), or ECN (Excluding ECN-503)  </t>
+  </si>
+  <si>
+    <t>Uses Double Dip Numbers</t>
+  </si>
+  <si>
+    <t>2.0 grade average</t>
+  </si>
+  <si>
+    <t>4 Western art history classes (will have to ask a professor about these)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF582A92"/>
       <name val="HelveticaNeueW01-45Ligh"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
     <font>
       <u/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF582A92"/>
       <name val="HelveticaNeueW01-45Ligh"/>
     </font>
     <font>
       <u/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF582A92"/>
       <name val="HelveticaNeueW01-45Ligh"/>
     </font>
     <font>
       <u/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF582A92"/>
       <name val="HelveticaNeueW01-45Ligh"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FF582A92"/>
       <name val="HelveticaNeueW01-65Medi"/>
     </font>
     <font>
       <u/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF582A92"/>
       <name val="HelveticaNeueW01-45Ligh"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF008000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
         <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
@@ -280,67 +324,371 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="76.43"/>
-    <col customWidth="1" min="2" max="2" width="19.14"/>
+    <col min="1" max="1" width="76.5" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -351,392 +699,406 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" ht="16">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4"/>
-    </row>
-    <row r="3">
+      <c r="B2" s="11"/>
+      <c r="C2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4">
+      <c r="B3" s="12"/>
+      <c r="C3" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4"/>
-    </row>
-    <row r="5">
+      <c r="B4" s="13"/>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4"/>
-    </row>
-    <row r="6">
+      <c r="B5" s="13"/>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="4"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="4"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="4"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="4"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:4">
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="4"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:4">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="4"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:4">
       <c r="A12" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="4"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:4">
       <c r="A13" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="4"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:4">
       <c r="A14" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="4"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:4">
       <c r="A15" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="4"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:4">
       <c r="A16" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="4"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:2">
       <c r="A17" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="4"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:2">
       <c r="A18" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="4"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:2">
       <c r="A19" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="4"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:2">
       <c r="A20" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="4"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:2">
       <c r="A21" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="4"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:2">
       <c r="A22" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B22" s="4"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:2">
       <c r="A23" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B23" s="4"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:2">
       <c r="A24" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B24" s="4"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:2">
       <c r="A25" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B25" s="4"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:2">
       <c r="A26" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B26" s="4"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:2">
       <c r="A27" s="6" t="s">
         <v>28</v>
       </c>
       <c r="B27" s="4"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:2">
       <c r="A28" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B28" s="4"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:2">
       <c r="A29" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B29" s="4"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:2">
       <c r="A30" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B30" s="4"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:2">
       <c r="A31" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B31" s="4"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:2">
       <c r="A32" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B32" s="4"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:2">
       <c r="A33" s="7" t="s">
         <v>34</v>
       </c>
       <c r="B33" s="4"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:2">
       <c r="A34" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B34" s="4"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:2">
       <c r="A35" s="7" t="s">
         <v>36</v>
       </c>
       <c r="B35" s="4"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:2">
       <c r="A36" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B36" s="4"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:2">
       <c r="A37" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B37" s="4"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:2">
       <c r="A38" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B38" s="4"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:2">
       <c r="A39" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B39" s="4"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:2">
       <c r="A40" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B40" s="4"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:2">
       <c r="A41" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B41" s="4"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:2">
       <c r="A42" s="5" t="s">
         <v>43</v>
       </c>
       <c r="B42" s="4"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:2">
       <c r="A43" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B43" s="4"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:2">
       <c r="A44" s="5" t="s">
         <v>45</v>
       </c>
       <c r="B44" s="4"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:2">
       <c r="A45" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B45" s="4"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:2">
       <c r="A46" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B46" s="4"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:2">
       <c r="A47" s="5" t="s">
         <v>48</v>
       </c>
       <c r="B47" s="4"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:2" ht="15.75" customHeight="1">
       <c r="A48" s="8" t="s">
         <v>49</v>
       </c>
       <c r="B48" s="4"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:2">
       <c r="A49" s="5" t="s">
         <v>50</v>
       </c>
       <c r="B49" s="4"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:2">
       <c r="A50" s="5" t="s">
         <v>51</v>
       </c>
       <c r="B50" s="4"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:2">
       <c r="A51" s="9" t="s">
         <v>52</v>
       </c>
       <c r="B51" s="4"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:2">
       <c r="A52" s="9" t="s">
         <v>53</v>
       </c>
       <c r="B52" s="4"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:2">
       <c r="A53" s="9" t="s">
         <v>54</v>
       </c>
       <c r="B53" s="4"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:2">
       <c r="A54" s="9" t="s">
         <v>55</v>
       </c>
       <c r="B54" s="4"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:2">
       <c r="A55" s="9" t="s">
         <v>56</v>
       </c>
       <c r="B55" s="4"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:2">
       <c r="A56" s="9" t="s">
         <v>57</v>
       </c>
       <c r="B56" s="4"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:2">
       <c r="A57" s="9" t="s">
         <v>58</v>
       </c>
       <c r="B57" s="4"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:2">
       <c r="A58" s="9" t="s">
         <v>59</v>
       </c>
       <c r="B58" s="4"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:2">
       <c r="A59" s="9" t="s">
         <v>60</v>
       </c>
       <c r="B59" s="4"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:2">
       <c r="A60" s="9" t="s">
         <v>61</v>
       </c>
       <c r="B60" s="4"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:2">
       <c r="A61" s="9" t="s">
         <v>61</v>
       </c>
       <c r="B61" s="4"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:2" ht="15.75" customHeight="1">
       <c r="A62" s="10" t="s">
         <v>62</v>
       </c>
       <c r="B62" s="4"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:2">
       <c r="A63" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B63" s="4"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:2">
       <c r="A64" s="3" t="s">
         <v>64</v>
       </c>
       <c r="B64" s="4"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:2">
       <c r="A65" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B65" s="4"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:2">
       <c r="A66" s="3" t="s">
         <v>66</v>
       </c>
@@ -744,54 +1106,59 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A2"/>
-    <hyperlink r:id="rId2" ref="A3"/>
-    <hyperlink r:id="rId3" ref="A4"/>
-    <hyperlink r:id="rId4" ref="A10"/>
-    <hyperlink r:id="rId5" ref="A11"/>
-    <hyperlink r:id="rId6" ref="A12"/>
-    <hyperlink r:id="rId7" ref="A16"/>
-    <hyperlink r:id="rId8" ref="A17"/>
-    <hyperlink r:id="rId9" ref="A18"/>
-    <hyperlink r:id="rId10" ref="A19"/>
-    <hyperlink r:id="rId11" ref="A20"/>
-    <hyperlink r:id="rId12" ref="A21"/>
-    <hyperlink r:id="rId13" ref="A22"/>
-    <hyperlink r:id="rId14" ref="A23"/>
-    <hyperlink r:id="rId15" ref="A24"/>
-    <hyperlink r:id="rId16" ref="A25"/>
-    <hyperlink r:id="rId17" ref="A29"/>
-    <hyperlink r:id="rId18" ref="A30"/>
-    <hyperlink r:id="rId19" ref="A36"/>
-    <hyperlink r:id="rId20" ref="A37"/>
-    <hyperlink r:id="rId21" ref="A38"/>
-    <hyperlink r:id="rId22" ref="A39"/>
-    <hyperlink r:id="rId23" ref="A40"/>
-    <hyperlink r:id="rId24" ref="A41"/>
-    <hyperlink r:id="rId25" ref="A42"/>
-    <hyperlink r:id="rId26" ref="A43"/>
-    <hyperlink r:id="rId27" ref="A44"/>
-    <hyperlink r:id="rId28" ref="A45"/>
-    <hyperlink r:id="rId29" ref="A46"/>
-    <hyperlink r:id="rId30" ref="A47"/>
-    <hyperlink r:id="rId31" ref="A49"/>
-    <hyperlink r:id="rId32" ref="A50"/>
-    <hyperlink r:id="rId33" ref="A51"/>
-    <hyperlink r:id="rId34" ref="A52"/>
-    <hyperlink r:id="rId35" ref="A53"/>
-    <hyperlink r:id="rId36" ref="A54"/>
-    <hyperlink r:id="rId37" ref="A55"/>
-    <hyperlink r:id="rId38" ref="A56"/>
-    <hyperlink r:id="rId39" ref="A57"/>
-    <hyperlink r:id="rId40" ref="A58"/>
-    <hyperlink r:id="rId41" ref="A59"/>
-    <hyperlink r:id="rId42" ref="A60"/>
-    <hyperlink r:id="rId43" ref="A61"/>
-    <hyperlink r:id="rId44" ref="A63"/>
-    <hyperlink r:id="rId45" ref="A64"/>
-    <hyperlink r:id="rId46" ref="A65"/>
-    <hyperlink r:id="rId47" ref="A66"/>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A10" r:id="rId4"/>
+    <hyperlink ref="A11" r:id="rId5"/>
+    <hyperlink ref="A12" r:id="rId6"/>
+    <hyperlink ref="A16" r:id="rId7"/>
+    <hyperlink ref="A17" r:id="rId8"/>
+    <hyperlink ref="A18" r:id="rId9"/>
+    <hyperlink ref="A19" r:id="rId10"/>
+    <hyperlink ref="A20" r:id="rId11"/>
+    <hyperlink ref="A21" r:id="rId12"/>
+    <hyperlink ref="A22" r:id="rId13"/>
+    <hyperlink ref="A23" r:id="rId14"/>
+    <hyperlink ref="A24" r:id="rId15"/>
+    <hyperlink ref="A25" r:id="rId16"/>
+    <hyperlink ref="A29" r:id="rId17"/>
+    <hyperlink ref="A30" r:id="rId18"/>
+    <hyperlink ref="A36" r:id="rId19"/>
+    <hyperlink ref="A37" r:id="rId20"/>
+    <hyperlink ref="A38" r:id="rId21"/>
+    <hyperlink ref="A39" r:id="rId22"/>
+    <hyperlink ref="A40" r:id="rId23"/>
+    <hyperlink ref="A41" r:id="rId24"/>
+    <hyperlink ref="A42" r:id="rId25"/>
+    <hyperlink ref="A43" r:id="rId26"/>
+    <hyperlink ref="A44" r:id="rId27"/>
+    <hyperlink ref="A45" r:id="rId28"/>
+    <hyperlink ref="A46" r:id="rId29"/>
+    <hyperlink ref="A47" r:id="rId30"/>
+    <hyperlink ref="A49" r:id="rId31"/>
+    <hyperlink ref="A50" r:id="rId32"/>
+    <hyperlink ref="A51" r:id="rId33"/>
+    <hyperlink ref="A52" r:id="rId34"/>
+    <hyperlink ref="A53" r:id="rId35"/>
+    <hyperlink ref="A54" r:id="rId36"/>
+    <hyperlink ref="A55" r:id="rId37"/>
+    <hyperlink ref="A56" r:id="rId38"/>
+    <hyperlink ref="A57" r:id="rId39"/>
+    <hyperlink ref="A58" r:id="rId40"/>
+    <hyperlink ref="A59" r:id="rId41"/>
+    <hyperlink ref="A60" r:id="rId42"/>
+    <hyperlink ref="A61" r:id="rId43"/>
+    <hyperlink ref="A63" r:id="rId44"/>
+    <hyperlink ref="A64" r:id="rId45"/>
+    <hyperlink ref="A65" r:id="rId46"/>
+    <hyperlink ref="A66" r:id="rId47"/>
   </hyperlinks>
-  <drawing r:id="rId48"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Majors%2FMinor%2FTrack Progress.xlsx
+++ b/Majors%2FMinor%2FTrack Progress.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5240" yWindow="3040" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
+    <workbookView xWindow="5940" yWindow="980" windowWidth="25360" windowHeight="15280" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="81">
   <si>
     <t>Major</t>
   </si>
@@ -235,6 +235,33 @@
   </si>
   <si>
     <t>4 Western art history classes (will have to ask a professor about these)</t>
+  </si>
+  <si>
+    <t>"at least three courses in a single Asian language at Furman or three non-language Asian Studies courses" I just put all these things as requirements. We can go back later and or the requirements.</t>
+  </si>
+  <si>
+    <t>12 Additional credits of studio arts (where some THA classes count too)</t>
+  </si>
+  <si>
+    <t>May have a requirement satisfied by an FYW</t>
+  </si>
+  <si>
+    <t>MTH - 120 and 145 or MTH 151</t>
+  </si>
+  <si>
+    <t>Has substitutions, including 2 mayX courses subbing for 1 elective</t>
+  </si>
+  <si>
+    <t>Includes a second major for education oriented students</t>
+  </si>
+  <si>
+    <t>The third elective may be satisfied by 1 couse or by 341 and 342 together</t>
+  </si>
+  <si>
+    <t>Block - I just put the 4 classes as required.</t>
+  </si>
+  <si>
+    <t>Includes education major</t>
   </si>
 </sst>
 </file>
@@ -676,10 +703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D66"/>
+  <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -688,7 +715,7 @@
     <col min="2" max="2" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6" ht="16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -699,7 +726,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16">
+    <row r="2" spans="1:6" ht="16">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -711,7 +738,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:6" ht="16">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -720,13 +747,13 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:6" ht="16">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="13"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:6" ht="16">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -738,253 +765,280 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:6" ht="16">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="4"/>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="B6" s="13"/>
+      <c r="C6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="4"/>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="B7" s="13"/>
+      <c r="C7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="4"/>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="B8" s="12"/>
+      <c r="C8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="4"/>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="B9" s="12"/>
+    </row>
+    <row r="10" spans="1:6" ht="16">
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="4"/>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="B10" s="12"/>
+      <c r="C10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="4"/>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="B11" s="12"/>
+      <c r="C11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16">
       <c r="A12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="4"/>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="B12" s="12"/>
+      <c r="C12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="16">
       <c r="A13" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:6" ht="16">
       <c r="A14" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="4"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:6" ht="16">
       <c r="A15" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:6" ht="16">
       <c r="A16" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="4"/>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" ht="16">
       <c r="A17" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="4"/>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" ht="16">
       <c r="A18" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" ht="16">
       <c r="A19" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" ht="16">
       <c r="A20" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="4"/>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" ht="16">
       <c r="A21" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" ht="16">
       <c r="A22" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B22" s="4"/>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" ht="16">
       <c r="A23" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B23" s="4"/>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" ht="16">
       <c r="A24" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B24" s="4"/>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" ht="16">
       <c r="A25" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B25" s="4"/>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" ht="16">
       <c r="A26" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B26" s="4"/>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" ht="16">
       <c r="A27" s="6" t="s">
         <v>28</v>
       </c>
       <c r="B27" s="4"/>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" ht="16">
       <c r="A28" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B28" s="4"/>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" ht="16">
       <c r="A29" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B29" s="4"/>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" ht="16">
       <c r="A30" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B30" s="4"/>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" ht="16">
       <c r="A31" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B31" s="4"/>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" ht="16">
       <c r="A32" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B32" s="4"/>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" ht="16">
       <c r="A33" s="7" t="s">
         <v>34</v>
       </c>
       <c r="B33" s="4"/>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" ht="16">
       <c r="A34" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B34" s="4"/>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" ht="16">
       <c r="A35" s="7" t="s">
         <v>36</v>
       </c>
       <c r="B35" s="4"/>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" ht="16">
       <c r="A36" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B36" s="4"/>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" ht="16">
       <c r="A37" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B37" s="4"/>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" ht="16">
       <c r="A38" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B38" s="4"/>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" ht="16">
       <c r="A39" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B39" s="4"/>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" ht="16">
       <c r="A40" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B40" s="4"/>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" ht="16">
       <c r="A41" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B41" s="4"/>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" ht="16">
       <c r="A42" s="5" t="s">
         <v>43</v>
       </c>
       <c r="B42" s="4"/>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" ht="16">
       <c r="A43" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B43" s="4"/>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" ht="16">
       <c r="A44" s="5" t="s">
         <v>45</v>
       </c>
       <c r="B44" s="4"/>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" ht="16">
       <c r="A45" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B45" s="4"/>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" ht="16">
       <c r="A46" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B46" s="4"/>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" ht="16">
       <c r="A47" s="5" t="s">
         <v>48</v>
       </c>
@@ -996,79 +1050,79 @@
       </c>
       <c r="B48" s="4"/>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" ht="16">
       <c r="A49" s="5" t="s">
         <v>50</v>
       </c>
       <c r="B49" s="4"/>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" ht="16">
       <c r="A50" s="5" t="s">
         <v>51</v>
       </c>
       <c r="B50" s="4"/>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" ht="16">
       <c r="A51" s="9" t="s">
         <v>52</v>
       </c>
       <c r="B51" s="4"/>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" ht="16">
       <c r="A52" s="9" t="s">
         <v>53</v>
       </c>
       <c r="B52" s="4"/>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" ht="16">
       <c r="A53" s="9" t="s">
         <v>54</v>
       </c>
       <c r="B53" s="4"/>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" ht="16">
       <c r="A54" s="9" t="s">
         <v>55</v>
       </c>
       <c r="B54" s="4"/>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" ht="16">
       <c r="A55" s="9" t="s">
         <v>56</v>
       </c>
       <c r="B55" s="4"/>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" ht="16">
       <c r="A56" s="9" t="s">
         <v>57</v>
       </c>
       <c r="B56" s="4"/>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" ht="16">
       <c r="A57" s="9" t="s">
         <v>58</v>
       </c>
       <c r="B57" s="4"/>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" ht="16">
       <c r="A58" s="9" t="s">
         <v>59</v>
       </c>
       <c r="B58" s="4"/>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" ht="16">
       <c r="A59" s="9" t="s">
         <v>60</v>
       </c>
       <c r="B59" s="4"/>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" ht="16">
       <c r="A60" s="9" t="s">
         <v>61</v>
       </c>
       <c r="B60" s="4"/>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" ht="16">
       <c r="A61" s="9" t="s">
         <v>61</v>
       </c>
@@ -1080,25 +1134,25 @@
       </c>
       <c r="B62" s="4"/>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" ht="16">
       <c r="A63" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B63" s="4"/>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" ht="16">
       <c r="A64" s="3" t="s">
         <v>64</v>
       </c>
       <c r="B64" s="4"/>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" ht="16">
       <c r="A65" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B65" s="4"/>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" ht="16">
       <c r="A66" s="3" t="s">
         <v>66</v>
       </c>

--- a/Majors%2FMinor%2FTrack Progress.xlsx
+++ b/Majors%2FMinor%2FTrack Progress.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5940" yWindow="980" windowWidth="25360" windowHeight="15280" tabRatio="500"/>
+    <workbookView xWindow="3120" yWindow="2260" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="85">
   <si>
     <t>Major</t>
   </si>
@@ -262,6 +262,18 @@
   </si>
   <si>
     <t>Includes education major</t>
+  </si>
+  <si>
+    <t>Independent study is not normally accepted</t>
+  </si>
+  <si>
+    <t>Greek elective needs to not overlap with additional elective</t>
+  </si>
+  <si>
+    <t>Latin elective needs to not overlap with additional elective</t>
+  </si>
+  <si>
+    <t>Needs help with double dip issues</t>
   </si>
 </sst>
 </file>
@@ -319,7 +331,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -344,6 +356,12 @@
         <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3366FF"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -357,7 +375,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -369,9 +387,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -705,8 +724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -730,7 +749,7 @@
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="11"/>
+      <c r="B2" s="13"/>
       <c r="C2" t="s">
         <v>67</v>
       </c>
@@ -751,13 +770,13 @@
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="13"/>
+      <c r="B4" s="12"/>
     </row>
     <row r="5" spans="1:6" ht="16">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="13"/>
+      <c r="B5" s="12"/>
       <c r="C5" t="s">
         <v>70</v>
       </c>
@@ -769,7 +788,7 @@
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="13"/>
+      <c r="B6" s="12"/>
       <c r="C6" t="s">
         <v>73</v>
       </c>
@@ -778,7 +797,7 @@
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="13"/>
+      <c r="B7" s="12"/>
       <c r="C7" t="s">
         <v>72</v>
       </c>
@@ -838,25 +857,37 @@
       <c r="A13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="4"/>
+      <c r="B13" s="11"/>
+      <c r="C13" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="16">
       <c r="A14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="4"/>
+      <c r="B14" s="14"/>
+      <c r="C14" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="16">
       <c r="A15" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="4"/>
+      <c r="B15" s="14"/>
+      <c r="C15" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="16">
       <c r="A16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="4"/>
+      <c r="B16" s="14"/>
+      <c r="C16" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="17" spans="1:2" ht="16">
       <c r="A17" s="5" t="s">

--- a/Majors%2FMinor%2FTrack Progress.xlsx
+++ b/Majors%2FMinor%2FTrack Progress.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="2260" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
+    <workbookView xWindow="4960" yWindow="600" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="92">
   <si>
     <t>Major</t>
   </si>
@@ -274,13 +274,34 @@
   </si>
   <si>
     <t>Needs help with double dip issues</t>
+  </si>
+  <si>
+    <t>Double dip numbers</t>
+  </si>
+  <si>
+    <t>Finish adding all possible others for cognate</t>
+  </si>
+  <si>
+    <t>The website has a typo at the last requirement, not sure what it means.</t>
+  </si>
+  <si>
+    <t>Skipped</t>
+  </si>
+  <si>
+    <t>Credit hours requirement</t>
+  </si>
+  <si>
+    <t>English Writing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Must enroll in a major </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -330,6 +351,11 @@
       <color rgb="FF008000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -375,7 +401,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -391,6 +417,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -722,10 +749,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F66"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -889,267 +916,291 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="16">
+    <row r="17" spans="1:4" ht="16">
       <c r="A17" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="4"/>
-    </row>
-    <row r="18" spans="1:2" ht="16">
+      <c r="B17" s="14"/>
+      <c r="C17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="16">
       <c r="A18" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="4"/>
-    </row>
-    <row r="19" spans="1:2" ht="16">
+      <c r="B18" s="15"/>
+    </row>
+    <row r="19" spans="1:4" ht="16">
       <c r="A19" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="4"/>
-    </row>
-    <row r="20" spans="1:2" ht="16">
+      <c r="B19" s="12"/>
+      <c r="C19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="16">
       <c r="A20" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="4"/>
-    </row>
-    <row r="21" spans="1:2" ht="16">
-      <c r="A21" s="5" t="s">
+      <c r="C20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="16">
+      <c r="A21" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="16">
+      <c r="A22" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="4"/>
-    </row>
-    <row r="22" spans="1:2" ht="16">
-      <c r="A22" s="5" t="s">
+      <c r="B22" s="12"/>
+      <c r="C22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="16">
+      <c r="A23" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="4"/>
-    </row>
-    <row r="23" spans="1:2" ht="16">
-      <c r="A23" s="5" t="s">
+      <c r="B23" s="11"/>
+    </row>
+    <row r="24" spans="1:4" ht="16">
+      <c r="A24" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="4"/>
-    </row>
-    <row r="24" spans="1:2" ht="16">
-      <c r="A24" s="5" t="s">
+      <c r="B24" s="11"/>
+    </row>
+    <row r="25" spans="1:4" ht="16">
+      <c r="A25" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="4"/>
-    </row>
-    <row r="25" spans="1:2" ht="16">
-      <c r="A25" s="5" t="s">
+      <c r="B25" s="15"/>
+    </row>
+    <row r="26" spans="1:4" ht="16">
+      <c r="A26" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="4"/>
-    </row>
-    <row r="26" spans="1:2" ht="16">
-      <c r="A26" s="6" t="s">
+      <c r="B26" s="14"/>
+      <c r="C26" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="16">
+      <c r="A27" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="4"/>
-    </row>
-    <row r="27" spans="1:2" ht="16">
-      <c r="A27" s="6" t="s">
+      <c r="B27" s="4"/>
+      <c r="C27" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="16">
+      <c r="A28" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="4"/>
-    </row>
-    <row r="28" spans="1:2" ht="16">
-      <c r="A28" s="6" t="s">
+      <c r="B28" s="4"/>
+    </row>
+    <row r="29" spans="1:4" ht="16">
+      <c r="A29" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="4"/>
-    </row>
-    <row r="29" spans="1:2" ht="16">
-      <c r="A29" s="5" t="s">
+      <c r="B29" s="4"/>
+    </row>
+    <row r="30" spans="1:4" ht="16">
+      <c r="A30" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="4"/>
-    </row>
-    <row r="30" spans="1:2" ht="16">
-      <c r="A30" s="5" t="s">
+      <c r="B30" s="4"/>
+    </row>
+    <row r="31" spans="1:4" ht="16">
+      <c r="A31" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="4"/>
-    </row>
-    <row r="31" spans="1:2" ht="16">
-      <c r="A31" s="6" t="s">
+      <c r="B31" s="4"/>
+    </row>
+    <row r="32" spans="1:4" ht="16">
+      <c r="A32" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="4"/>
-    </row>
-    <row r="32" spans="1:2" ht="16">
-      <c r="A32" s="6" t="s">
+      <c r="B32" s="4"/>
+    </row>
+    <row r="33" spans="1:2" ht="16">
+      <c r="A33" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="B32" s="4"/>
-    </row>
-    <row r="33" spans="1:2" ht="16">
-      <c r="A33" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="B33" s="4"/>
     </row>
     <row r="34" spans="1:2" ht="16">
       <c r="A34" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B34" s="4"/>
     </row>
     <row r="35" spans="1:2" ht="16">
       <c r="A35" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="4"/>
+    </row>
+    <row r="36" spans="1:2" ht="16">
+      <c r="A36" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="B35" s="4"/>
-    </row>
-    <row r="36" spans="1:2" ht="16">
-      <c r="A36" s="5" t="s">
-        <v>37</v>
       </c>
       <c r="B36" s="4"/>
     </row>
     <row r="37" spans="1:2" ht="16">
       <c r="A37" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B37" s="4"/>
     </row>
     <row r="38" spans="1:2" ht="16">
       <c r="A38" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B38" s="4"/>
     </row>
     <row r="39" spans="1:2" ht="16">
       <c r="A39" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B39" s="4"/>
     </row>
     <row r="40" spans="1:2" ht="16">
       <c r="A40" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B40" s="4"/>
     </row>
     <row r="41" spans="1:2" ht="16">
       <c r="A41" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B41" s="4"/>
     </row>
     <row r="42" spans="1:2" ht="16">
       <c r="A42" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B42" s="4"/>
     </row>
     <row r="43" spans="1:2" ht="16">
       <c r="A43" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B43" s="4"/>
     </row>
     <row r="44" spans="1:2" ht="16">
       <c r="A44" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B44" s="4"/>
     </row>
     <row r="45" spans="1:2" ht="16">
       <c r="A45" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B45" s="4"/>
     </row>
     <row r="46" spans="1:2" ht="16">
       <c r="A46" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46" s="4"/>
     </row>
     <row r="47" spans="1:2" ht="16">
       <c r="A47" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" s="4"/>
+    </row>
+    <row r="48" spans="1:2" ht="16">
+      <c r="A48" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B47" s="4"/>
-    </row>
-    <row r="48" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A48" s="8" t="s">
+      <c r="B48" s="4"/>
+    </row>
+    <row r="49" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A49" s="8" t="s">
         <v>49</v>
-      </c>
-      <c r="B48" s="4"/>
-    </row>
-    <row r="49" spans="1:2" ht="16">
-      <c r="A49" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="B49" s="4"/>
     </row>
     <row r="50" spans="1:2" ht="16">
       <c r="A50" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" s="4"/>
+    </row>
+    <row r="51" spans="1:2" ht="16">
+      <c r="A51" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="B50" s="4"/>
-    </row>
-    <row r="51" spans="1:2" ht="16">
-      <c r="A51" s="9" t="s">
-        <v>52</v>
       </c>
       <c r="B51" s="4"/>
     </row>
     <row r="52" spans="1:2" ht="16">
       <c r="A52" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B52" s="4"/>
     </row>
     <row r="53" spans="1:2" ht="16">
       <c r="A53" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B53" s="4"/>
     </row>
     <row r="54" spans="1:2" ht="16">
       <c r="A54" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B54" s="4"/>
     </row>
     <row r="55" spans="1:2" ht="16">
       <c r="A55" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B55" s="4"/>
     </row>
     <row r="56" spans="1:2" ht="16">
       <c r="A56" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B56" s="4"/>
     </row>
     <row r="57" spans="1:2" ht="16">
       <c r="A57" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B57" s="4"/>
     </row>
     <row r="58" spans="1:2" ht="16">
       <c r="A58" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B58" s="4"/>
     </row>
     <row r="59" spans="1:2" ht="16">
       <c r="A59" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B59" s="4"/>
     </row>
     <row r="60" spans="1:2" ht="16">
       <c r="A60" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B60" s="4"/>
     </row>
@@ -1159,35 +1210,41 @@
       </c>
       <c r="B61" s="4"/>
     </row>
-    <row r="62" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A62" s="10" t="s">
+    <row r="62" spans="1:2" ht="16">
+      <c r="A62" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" s="4"/>
+    </row>
+    <row r="63" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A63" s="10" t="s">
         <v>62</v>
-      </c>
-      <c r="B62" s="4"/>
-    </row>
-    <row r="63" spans="1:2" ht="16">
-      <c r="A63" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="B63" s="4"/>
     </row>
     <row r="64" spans="1:2" ht="16">
       <c r="A64" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B64" s="4"/>
     </row>
     <row r="65" spans="1:2" ht="16">
       <c r="A65" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B65" s="4"/>
     </row>
     <row r="66" spans="1:2" ht="16">
       <c r="A66" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" s="4"/>
+    </row>
+    <row r="67" spans="1:2" ht="16">
+      <c r="A67" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B66" s="4"/>
+      <c r="B67" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1202,42 +1259,42 @@
     <hyperlink ref="A18" r:id="rId9"/>
     <hyperlink ref="A19" r:id="rId10"/>
     <hyperlink ref="A20" r:id="rId11"/>
-    <hyperlink ref="A21" r:id="rId12"/>
-    <hyperlink ref="A22" r:id="rId13"/>
-    <hyperlink ref="A23" r:id="rId14"/>
-    <hyperlink ref="A24" r:id="rId15"/>
-    <hyperlink ref="A25" r:id="rId16"/>
-    <hyperlink ref="A29" r:id="rId17"/>
-    <hyperlink ref="A30" r:id="rId18"/>
-    <hyperlink ref="A36" r:id="rId19"/>
-    <hyperlink ref="A37" r:id="rId20"/>
-    <hyperlink ref="A38" r:id="rId21"/>
-    <hyperlink ref="A39" r:id="rId22"/>
-    <hyperlink ref="A40" r:id="rId23"/>
-    <hyperlink ref="A41" r:id="rId24"/>
-    <hyperlink ref="A42" r:id="rId25"/>
-    <hyperlink ref="A43" r:id="rId26"/>
-    <hyperlink ref="A44" r:id="rId27"/>
-    <hyperlink ref="A45" r:id="rId28"/>
-    <hyperlink ref="A46" r:id="rId29"/>
-    <hyperlink ref="A47" r:id="rId30"/>
-    <hyperlink ref="A49" r:id="rId31"/>
-    <hyperlink ref="A50" r:id="rId32"/>
-    <hyperlink ref="A51" r:id="rId33"/>
-    <hyperlink ref="A52" r:id="rId34"/>
-    <hyperlink ref="A53" r:id="rId35"/>
-    <hyperlink ref="A54" r:id="rId36"/>
-    <hyperlink ref="A55" r:id="rId37"/>
-    <hyperlink ref="A56" r:id="rId38"/>
-    <hyperlink ref="A57" r:id="rId39"/>
-    <hyperlink ref="A58" r:id="rId40"/>
-    <hyperlink ref="A59" r:id="rId41"/>
-    <hyperlink ref="A60" r:id="rId42"/>
-    <hyperlink ref="A61" r:id="rId43"/>
-    <hyperlink ref="A63" r:id="rId44"/>
-    <hyperlink ref="A64" r:id="rId45"/>
-    <hyperlink ref="A65" r:id="rId46"/>
-    <hyperlink ref="A66" r:id="rId47"/>
+    <hyperlink ref="A22" r:id="rId12"/>
+    <hyperlink ref="A23" r:id="rId13"/>
+    <hyperlink ref="A24" r:id="rId14"/>
+    <hyperlink ref="A25" r:id="rId15"/>
+    <hyperlink ref="A26" r:id="rId16"/>
+    <hyperlink ref="A30" r:id="rId17"/>
+    <hyperlink ref="A31" r:id="rId18"/>
+    <hyperlink ref="A37" r:id="rId19"/>
+    <hyperlink ref="A38" r:id="rId20"/>
+    <hyperlink ref="A39" r:id="rId21"/>
+    <hyperlink ref="A40" r:id="rId22"/>
+    <hyperlink ref="A41" r:id="rId23"/>
+    <hyperlink ref="A42" r:id="rId24"/>
+    <hyperlink ref="A43" r:id="rId25"/>
+    <hyperlink ref="A44" r:id="rId26"/>
+    <hyperlink ref="A45" r:id="rId27"/>
+    <hyperlink ref="A46" r:id="rId28"/>
+    <hyperlink ref="A47" r:id="rId29"/>
+    <hyperlink ref="A48" r:id="rId30"/>
+    <hyperlink ref="A50" r:id="rId31"/>
+    <hyperlink ref="A51" r:id="rId32"/>
+    <hyperlink ref="A52" r:id="rId33"/>
+    <hyperlink ref="A53" r:id="rId34"/>
+    <hyperlink ref="A54" r:id="rId35"/>
+    <hyperlink ref="A55" r:id="rId36"/>
+    <hyperlink ref="A56" r:id="rId37"/>
+    <hyperlink ref="A57" r:id="rId38"/>
+    <hyperlink ref="A58" r:id="rId39"/>
+    <hyperlink ref="A59" r:id="rId40"/>
+    <hyperlink ref="A60" r:id="rId41"/>
+    <hyperlink ref="A61" r:id="rId42"/>
+    <hyperlink ref="A62" r:id="rId43"/>
+    <hyperlink ref="A64" r:id="rId44"/>
+    <hyperlink ref="A65" r:id="rId45"/>
+    <hyperlink ref="A66" r:id="rId46"/>
+    <hyperlink ref="A67" r:id="rId47"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
